--- a/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>132225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>118139</v>
+        <v>117761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148232</v>
+        <v>145360</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6609529794902875</v>
+        <v>0.6609529794902876</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5905423645139066</v>
+        <v>0.5886526676269567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.740967633507509</v>
+        <v>0.7266112599762121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>151</v>
@@ -762,19 +762,19 @@
         <v>90579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81020</v>
+        <v>80064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99240</v>
+        <v>100027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5987551267690142</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5355694499985265</v>
+        <v>0.5292460978598178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6560047065341971</v>
+        <v>0.6612101280718997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>285</v>
@@ -783,19 +783,19 @@
         <v>222804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205164</v>
+        <v>206318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238622</v>
+        <v>239516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6341713221288565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.58396138962382</v>
+        <v>0.5872464368007996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6791954148393201</v>
+        <v>0.6817394203179418</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>19272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9820</v>
+        <v>10960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32137</v>
+        <v>32389</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09633356356395313</v>
+        <v>0.09633356356395315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04908690514583915</v>
+        <v>0.05478596706225172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1606430942869284</v>
+        <v>0.1619040645331836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -833,19 +833,19 @@
         <v>11979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7732</v>
+        <v>7347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18002</v>
+        <v>17905</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07918396468336562</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05111042761729477</v>
+        <v>0.048563292951298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1189961847015958</v>
+        <v>0.1183586828186951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -854,19 +854,19 @@
         <v>31251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21458</v>
+        <v>20344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45363</v>
+        <v>44646</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08894914977777134</v>
+        <v>0.08894914977777132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06107550351466233</v>
+        <v>0.0579062082310573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1291167316246704</v>
+        <v>0.1270770927703021</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>20066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12746</v>
+        <v>13328</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29686</v>
+        <v>29768</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1003053061133138</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06371328023881323</v>
+        <v>0.0666218724977763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1483893894411593</v>
+        <v>0.1488009071111796</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -904,19 +904,19 @@
         <v>16408</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11747</v>
+        <v>11518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22773</v>
+        <v>23696</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1084639663750309</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07764940722488733</v>
+        <v>0.07613478955148842</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1505386969528898</v>
+        <v>0.1566370970927532</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -925,19 +925,19 @@
         <v>36475</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27778</v>
+        <v>27704</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47405</v>
+        <v>48062</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1038183284138875</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07906507821411461</v>
+        <v>0.07885422005055008</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1349286088897837</v>
+        <v>0.1368007156918902</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>23020</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15122</v>
+        <v>15256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32985</v>
+        <v>32925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1150689828430031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07559256183786194</v>
+        <v>0.07625767705505995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1648839029935628</v>
+        <v>0.1645825128535789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -975,19 +975,19 @@
         <v>30270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23563</v>
+        <v>22706</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38460</v>
+        <v>38199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2000914212579322</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1557614510949467</v>
+        <v>0.1500947094120578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2542345441484397</v>
+        <v>0.2525070671872178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -996,19 +996,19 @@
         <v>53289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43121</v>
+        <v>42837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67158</v>
+        <v>66457</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1516786359746971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1227354229734766</v>
+        <v>0.1219287070367213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1911537212011011</v>
+        <v>0.1891577458970289</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>5469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1994</v>
+        <v>1876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11484</v>
+        <v>11789</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02733916798944233</v>
+        <v>0.02733916798944234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009969501730931807</v>
+        <v>0.009377313365613867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05740664213999662</v>
+        <v>0.0589305320592055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6210</v>
+        <v>5871</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01028461358568542</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04105258760807919</v>
+        <v>0.03880837027684177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1067,19 +1067,19 @@
         <v>7025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2740</v>
+        <v>3226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13273</v>
+        <v>13693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01999567922721562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007798313734986992</v>
+        <v>0.009182542009479117</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03777875274182278</v>
+        <v>0.03897439435967693</v>
       </c>
     </row>
     <row r="9">
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2271</v>
+        <v>3007</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00322090732897179</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01501445186929618</v>
+        <v>0.01987960382922836</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2940</v>
+        <v>3011</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001386884477572021</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008367872151169801</v>
+        <v>0.008571447833286719</v>
       </c>
     </row>
     <row r="10">
@@ -1234,19 +1234,19 @@
         <v>96115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>76468</v>
+        <v>78421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>114580</v>
+        <v>116441</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3802604245763439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3025315920784886</v>
+        <v>0.3102583431903088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4533150137435938</v>
+        <v>0.4606775612189176</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -1255,19 +1255,19 @@
         <v>52821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41929</v>
+        <v>42348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64045</v>
+        <v>64169</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3047102339072537</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2418735863790311</v>
+        <v>0.2442937788184221</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3694580431476325</v>
+        <v>0.3701732953113686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -1276,19 +1276,19 @@
         <v>148936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>125465</v>
+        <v>128352</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>171419</v>
+        <v>172988</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3495252593162104</v>
+        <v>0.3495252593162105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.294444318476495</v>
+        <v>0.3012192747761503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4022910435653772</v>
+        <v>0.405971174813245</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>25393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15780</v>
+        <v>15367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41253</v>
+        <v>41142</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1004643065043899</v>
+        <v>0.10046430650439</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06242937361380767</v>
+        <v>0.06079801642249892</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1632086494894781</v>
+        <v>0.1627704261698266</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1326,19 +1326,19 @@
         <v>20317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13346</v>
+        <v>12842</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29119</v>
+        <v>29188</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1172000262079595</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0769868408665341</v>
+        <v>0.07408273284237805</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1679783787958693</v>
+        <v>0.1683775403036914</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -1347,19 +1347,19 @@
         <v>45710</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33449</v>
+        <v>32996</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>62608</v>
+        <v>62439</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1072726958185804</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0784991072330439</v>
+        <v>0.07743630853886578</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1469297134942326</v>
+        <v>0.1465323592514589</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>8231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2496</v>
+        <v>2876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20501</v>
+        <v>19970</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03256628694423668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009873195771724824</v>
+        <v>0.0113799876634947</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08110692924669756</v>
+        <v>0.0790074297174251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1397,19 +1397,19 @@
         <v>10353</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5780</v>
+        <v>5768</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17271</v>
+        <v>17495</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05972566063703248</v>
+        <v>0.0597256606370325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03334420687358691</v>
+        <v>0.03327492805179952</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09962922368042579</v>
+        <v>0.1009251127894513</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1418,19 +1418,19 @@
         <v>18585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10966</v>
+        <v>10580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29544</v>
+        <v>30455</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04361520464275045</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0257343854007148</v>
+        <v>0.02483020499581264</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06933412689280694</v>
+        <v>0.07147229259020131</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>49898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34842</v>
+        <v>34694</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67591</v>
+        <v>67702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1974112053016117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1378465310502486</v>
+        <v>0.1372624209456578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2674116678145322</v>
+        <v>0.2678516675974553</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -1468,19 +1468,19 @@
         <v>27615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20042</v>
+        <v>20127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36812</v>
+        <v>37096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1593006820676224</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1156166852857202</v>
+        <v>0.1161059526054016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2123550014504764</v>
+        <v>0.213994360749276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -1489,19 +1489,19 @@
         <v>77512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60025</v>
+        <v>59724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>97883</v>
+        <v>99503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1819071646185477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1408687725521282</v>
+        <v>0.1401625164593365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2297132703262767</v>
+        <v>0.2335168385666352</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>55646</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40182</v>
+        <v>39938</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>75511</v>
+        <v>73194</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2201527665419526</v>
+        <v>0.2201527665419527</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1589740230933194</v>
+        <v>0.1580089440887102</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2987474769868562</v>
+        <v>0.289579862468907</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -1539,19 +1539,19 @@
         <v>41365</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32006</v>
+        <v>31737</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>53783</v>
+        <v>53836</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2386215802694995</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1846330018398643</v>
+        <v>0.183082435285796</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3102560073610953</v>
+        <v>0.3105668551179699</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -1560,19 +1560,19 @@
         <v>97010</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>78789</v>
+        <v>77346</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>117347</v>
+        <v>116687</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2276662094207542</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1849038390140162</v>
+        <v>0.1815164682102859</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.275391993338358</v>
+        <v>0.2738444553630168</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>17477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8690</v>
+        <v>9079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28412</v>
+        <v>29373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06914501013146516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03438138044856108</v>
+        <v>0.03591886643395674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1124065036886924</v>
+        <v>0.1162103034225537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1610,19 +1610,19 @@
         <v>20878</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13411</v>
+        <v>13519</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30003</v>
+        <v>29859</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1204418169106323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07736476155362111</v>
+        <v>0.07798433612496977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1730792502457575</v>
+        <v>0.172250520857683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1631,19 +1631,19 @@
         <v>38355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27661</v>
+        <v>26895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51910</v>
+        <v>51869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09001346618315686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06491474886057075</v>
+        <v>0.06311798851893963</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1218247179631816</v>
+        <v>0.1217261889303581</v>
       </c>
     </row>
     <row r="17">
@@ -1735,19 +1735,19 @@
         <v>40714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30444</v>
+        <v>29708</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52193</v>
+        <v>52838</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2763749030592598</v>
+        <v>0.2763749030592597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.206663277983367</v>
+        <v>0.2016632133816272</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3542984602708762</v>
+        <v>0.3586774549007775</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -1756,19 +1756,19 @@
         <v>36007</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27502</v>
+        <v>27662</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45259</v>
+        <v>44990</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3009371201967648</v>
+        <v>0.3009371201967647</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2298514463325324</v>
+        <v>0.2311883323454713</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3782599248792159</v>
+        <v>0.3760140298488363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>86</v>
@@ -1777,19 +1777,19 @@
         <v>76721</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63997</v>
+        <v>64272</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92508</v>
+        <v>93460</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2873834161625355</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2397197294544352</v>
+        <v>0.2407488026525653</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3465174425239057</v>
+        <v>0.3500832948470095</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>23669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15304</v>
+        <v>16240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34285</v>
+        <v>34723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1606723414288594</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1038895109379767</v>
+        <v>0.1102424960178764</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2327326025882141</v>
+        <v>0.2357098765210049</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1827,19 +1827,19 @@
         <v>12695</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7634</v>
+        <v>8114</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19003</v>
+        <v>19682</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1060970453971091</v>
+        <v>0.1060970453971092</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06380091807542576</v>
+        <v>0.06781301900914423</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1588214482040448</v>
+        <v>0.1644939160860667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -1848,19 +1848,19 @@
         <v>36364</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27300</v>
+        <v>26484</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47813</v>
+        <v>48102</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1362122994824302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1022607364346056</v>
+        <v>0.0992033263769511</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1790977932975541</v>
+        <v>0.1801801295204516</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>18353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11504</v>
+        <v>11204</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28559</v>
+        <v>27255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1245872174082125</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07809204074751606</v>
+        <v>0.07605548006962726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1938652143992311</v>
+        <v>0.1850097199324117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1898,19 +1898,19 @@
         <v>14645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9557</v>
+        <v>9162</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21483</v>
+        <v>21951</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1223935033006495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07987582300973274</v>
+        <v>0.07656880821854442</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1795435379734167</v>
+        <v>0.1834557143667741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1919,19 +1919,19 @@
         <v>32998</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23938</v>
+        <v>24627</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43785</v>
+        <v>44529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.123604019093388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08966687296776675</v>
+        <v>0.09224939310917624</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.164009258412132</v>
+        <v>0.1667979646201521</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>15482</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9022</v>
+        <v>9099</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23559</v>
+        <v>24332</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.105095773255818</v>
+        <v>0.1050957732558179</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06124114288950933</v>
+        <v>0.06176535301215621</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1599257862751421</v>
+        <v>0.1651717151765032</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -1969,19 +1969,19 @@
         <v>11779</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6995</v>
+        <v>7070</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18471</v>
+        <v>17934</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09844860163812866</v>
+        <v>0.09844860163812867</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05845970560022688</v>
+        <v>0.05908498390913527</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1543765007076253</v>
+        <v>0.1498888920631654</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -1990,19 +1990,19 @@
         <v>27262</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19388</v>
+        <v>19228</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37753</v>
+        <v>36556</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1021165847141891</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07262433185887303</v>
+        <v>0.0720240862479587</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1414172255459858</v>
+        <v>0.1369318523272016</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>29282</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21005</v>
+        <v>20156</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39493</v>
+        <v>39279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1987723767953672</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1425849714812183</v>
+        <v>0.1368230230998619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2680905216846462</v>
+        <v>0.2666320071503162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2040,19 +2040,19 @@
         <v>23707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16230</v>
+        <v>16959</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32322</v>
+        <v>32003</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1981385096048772</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1356478374042415</v>
+        <v>0.1417410810330876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.270139573329292</v>
+        <v>0.2674702266739759</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -2061,19 +2061,19 @@
         <v>52989</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41558</v>
+        <v>41488</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65715</v>
+        <v>65768</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1984882845559257</v>
+        <v>0.1984882845559256</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1556668571248131</v>
+        <v>0.1554061578122764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2461547721497763</v>
+        <v>0.2463541624091818</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>19813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13161</v>
+        <v>11768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29631</v>
+        <v>28941</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.134497388052483</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0893391228559265</v>
+        <v>0.07988210011256171</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.201140463882961</v>
+        <v>0.1964605184448074</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2111,19 +2111,19 @@
         <v>20818</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14597</v>
+        <v>14395</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29375</v>
+        <v>28781</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1739852198624707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1219931514398531</v>
+        <v>0.1203056028838286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2455037047076414</v>
+        <v>0.2405451638370091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>50</v>
@@ -2132,19 +2132,19 @@
         <v>40631</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30617</v>
+        <v>30629</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>52272</v>
+        <v>53412</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1521953959915316</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1146852487227699</v>
+        <v>0.1147286118021811</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.195800715659375</v>
+        <v>0.200071368201664</v>
       </c>
     </row>
     <row r="24">
@@ -2236,19 +2236,19 @@
         <v>79650</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60747</v>
+        <v>61804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99451</v>
+        <v>99490</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3847233708329404</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2934172103069981</v>
+        <v>0.2985201735546186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4803613458065672</v>
+        <v>0.4805527750775008</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2257,19 +2257,19 @@
         <v>56352</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43024</v>
+        <v>43552</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70037</v>
+        <v>71757</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3172418194525189</v>
+        <v>0.317241819452519</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2422106221239562</v>
+        <v>0.2451804267854007</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3942815574034191</v>
+        <v>0.4039653257245216</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>101</v>
@@ -2278,19 +2278,19 @@
         <v>136002</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114493</v>
+        <v>110437</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>160423</v>
+        <v>159946</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3535616034004581</v>
+        <v>0.353561603400458</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2976436218717968</v>
+        <v>0.2870999861109669</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4170460213533279</v>
+        <v>0.4158078359841206</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>22764</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13811</v>
+        <v>13762</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36680</v>
+        <v>36121</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1099551573198044</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0667102604552387</v>
+        <v>0.06647211681596439</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1771719110152368</v>
+        <v>0.1744686701918897</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2328,19 +2328,19 @@
         <v>19444</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12808</v>
+        <v>11934</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29565</v>
+        <v>28184</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.109461695160778</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07210509039468598</v>
+        <v>0.06718595584701414</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1664377563950164</v>
+        <v>0.1586641693748982</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -2349,19 +2349,19 @@
         <v>42208</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29147</v>
+        <v>30802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57007</v>
+        <v>59148</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1097272853648515</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07577239549240723</v>
+        <v>0.08007574826487017</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1482003406762524</v>
+        <v>0.153765965170595</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>16453</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8361</v>
+        <v>9163</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30867</v>
+        <v>33285</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07947233315829126</v>
+        <v>0.07947233315829128</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04038357827766455</v>
+        <v>0.04425861649550721</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1490915863753243</v>
+        <v>0.1607719604892764</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>16</v>
@@ -2399,19 +2399,19 @@
         <v>14942</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8059</v>
+        <v>8361</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26953</v>
+        <v>25697</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.08411642117587723</v>
+        <v>0.08411642117587727</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04537209001790061</v>
+        <v>0.04706667950784784</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1517338808358475</v>
+        <v>0.1446667472995061</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -2420,19 +2420,19 @@
         <v>31395</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20275</v>
+        <v>20731</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>48650</v>
+        <v>47895</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.08161688952635932</v>
+        <v>0.08161688952635929</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05270881021286825</v>
+        <v>0.05389338165086295</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1264740835337242</v>
+        <v>0.1245120357644468</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>29865</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16221</v>
+        <v>16277</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44620</v>
+        <v>47192</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1442522212563715</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0783474414469767</v>
+        <v>0.07861820364562322</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2155197804227611</v>
+        <v>0.2279427549168195</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -2470,19 +2470,19 @@
         <v>24154</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15357</v>
+        <v>16429</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33643</v>
+        <v>35775</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.135978222292828</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0864553725941596</v>
+        <v>0.09249218411766165</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1893963767257658</v>
+        <v>0.2014015900331452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -2491,19 +2491,19 @@
         <v>54019</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40065</v>
+        <v>39568</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>76323</v>
+        <v>75502</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1404314372618685</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1041552454748074</v>
+        <v>0.1028630039977292</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1984140556069047</v>
+        <v>0.1962793731482014</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>35145</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21285</v>
+        <v>21652</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52807</v>
+        <v>54133</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1697547302304006</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1028094558791226</v>
+        <v>0.1045818231813015</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2550665986750008</v>
+        <v>0.2614708288238607</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2541,19 +2541,19 @@
         <v>31229</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21921</v>
+        <v>22558</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43446</v>
+        <v>42895</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1758109715157891</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1234074917813767</v>
+        <v>0.1269945900572652</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2445845085231115</v>
+        <v>0.2414845086249361</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>51</v>
@@ -2562,19 +2562,19 @@
         <v>66374</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49069</v>
+        <v>48821</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>87231</v>
+        <v>88590</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1725513935937895</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1275635768248559</v>
+        <v>0.1269188185337389</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.226771027813334</v>
+        <v>0.2303055618438581</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>23155</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12897</v>
+        <v>12973</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37972</v>
+        <v>35951</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1118421872021916</v>
+        <v>0.1118421872021917</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06229532437896853</v>
+        <v>0.06266055492988441</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1834106782395406</v>
+        <v>0.1736491157488997</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -2612,19 +2612,19 @@
         <v>31510</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22566</v>
+        <v>22474</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>40738</v>
+        <v>41706</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1773908704022088</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1270375845767903</v>
+        <v>0.1265197329757288</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2293415987312381</v>
+        <v>0.234790041672702</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -2633,19 +2633,19 @@
         <v>54665</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>40574</v>
+        <v>40883</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>73475</v>
+        <v>72513</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1421113908526731</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1054791435662955</v>
+        <v>0.1062835918582806</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1910115325507423</v>
+        <v>0.1885111484372752</v>
       </c>
     </row>
     <row r="31">
@@ -2737,19 +2737,19 @@
         <v>11614</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6705</v>
+        <v>6278</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19159</v>
+        <v>19074</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08636121533066161</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04985660254416245</v>
+        <v>0.046684890130201</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.142464024997903</v>
+        <v>0.141836588815333</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2758,19 +2758,19 @@
         <v>7791</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4262</v>
+        <v>4447</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12529</v>
+        <v>14075</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06614869462656128</v>
+        <v>0.06614869462656127</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03618265818377925</v>
+        <v>0.03775788873560677</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1063741398297752</v>
+        <v>0.119500097940614</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -2779,19 +2779,19 @@
         <v>19405</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13112</v>
+        <v>13036</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28255</v>
+        <v>27406</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.07692393651129627</v>
+        <v>0.07692393651129625</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0519776354019553</v>
+        <v>0.05167815119698693</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1120057413496181</v>
+        <v>0.1086416284907832</v>
       </c>
     </row>
     <row r="33">
@@ -2808,19 +2808,19 @@
         <v>76301</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>65063</v>
+        <v>65939</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>85819</v>
+        <v>86101</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5673735470394148</v>
+        <v>0.5673735470394147</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4838054308731314</v>
+        <v>0.4903226927980868</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6381474229836566</v>
+        <v>0.6402456888743783</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>157</v>
@@ -2829,19 +2829,19 @@
         <v>77009</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>68639</v>
+        <v>69095</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>85176</v>
+        <v>84007</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6538257819053466</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5827650497402417</v>
+        <v>0.5866327978709901</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7231633683528484</v>
+        <v>0.7132432846033611</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>252</v>
@@ -2850,19 +2850,19 @@
         <v>153310</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>141370</v>
+        <v>140090</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>166540</v>
+        <v>165670</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.6077383217714226</v>
+        <v>0.6077383217714225</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5604059581564196</v>
+        <v>0.5553347104067468</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6601834719313804</v>
+        <v>0.6567359860537537</v>
       </c>
     </row>
     <row r="34">
@@ -2879,19 +2879,19 @@
         <v>30159</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22354</v>
+        <v>22250</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>39213</v>
+        <v>39870</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2242649775720595</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1662214932666399</v>
+        <v>0.1654495160916713</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2915886282246553</v>
+        <v>0.2964759278813536</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>45</v>
@@ -2900,19 +2900,19 @@
         <v>21687</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15920</v>
+        <v>16196</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28524</v>
+        <v>28574</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1841300599597151</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.135162127988024</v>
+        <v>0.1375120391093273</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2421729307557781</v>
+        <v>0.2425979039336477</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>84</v>
@@ -2921,19 +2921,19 @@
         <v>51847</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>41805</v>
+        <v>41921</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>62118</v>
+        <v>62221</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2055258794929608</v>
+        <v>0.2055258794929607</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1657217702026656</v>
+        <v>0.1661806486286501</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2462440099527298</v>
+        <v>0.2466512054950874</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>12141</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7273</v>
+        <v>7546</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19549</v>
+        <v>18659</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.090283331805545</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0540807147656604</v>
+        <v>0.05611408385170572</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1453695829210554</v>
+        <v>0.1387498044895946</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>13</v>
@@ -2971,19 +2971,19 @@
         <v>8270</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4400</v>
+        <v>4625</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15010</v>
+        <v>14393</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0702167509252883</v>
+        <v>0.07021675092528831</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03735821469535062</v>
+        <v>0.03926793016407896</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1274374426592497</v>
+        <v>0.1222012538299666</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>28</v>
@@ -2992,19 +2992,19 @@
         <v>20412</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>14006</v>
+        <v>13848</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>29047</v>
+        <v>29787</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08091419267190336</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05552091078560275</v>
+        <v>0.05489567206941554</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1151438123339401</v>
+        <v>0.1180782793051568</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>3685</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1382</v>
+        <v>1467</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9797</v>
+        <v>9884</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02739855924556235</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01027591017494095</v>
+        <v>0.01091178531590215</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07284860834505905</v>
+        <v>0.07349642368416127</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -3042,19 +3042,19 @@
         <v>1807</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4278</v>
+        <v>4562</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01534443550573942</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003867340756012552</v>
+        <v>0.003850272182709528</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03632254339669024</v>
+        <v>0.03873243936982006</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -3063,19 +3063,19 @@
         <v>5492</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2370</v>
+        <v>2668</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11033</v>
+        <v>11935</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0217704573219481</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009394818726667458</v>
+        <v>0.01057620004002911</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04373744880000395</v>
+        <v>0.04731076768284809</v>
       </c>
     </row>
     <row r="37">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3300</v>
+        <v>3455</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004318369006756879</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02453568126409821</v>
+        <v>0.02569277209427227</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4082</v>
+        <v>4385</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01033427707734934</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03465723224302274</v>
+        <v>0.03722830267815478</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3</v>
@@ -3134,19 +3134,19 @@
         <v>1798</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4747</v>
+        <v>5059</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.007127212230468904</v>
+        <v>0.007127212230468903</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001875958269159191</v>
+        <v>0.001864582882569739</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01881831539573045</v>
+        <v>0.02005537967288159</v>
       </c>
     </row>
     <row r="38">
@@ -3238,19 +3238,19 @@
         <v>42657</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>32144</v>
+        <v>32371</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>53197</v>
+        <v>52136</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3170646268446398</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2389258204630463</v>
+        <v>0.2406110584884128</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.395409991974314</v>
+        <v>0.3875236830231558</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>44</v>
@@ -3259,19 +3259,19 @@
         <v>32557</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>24822</v>
+        <v>25554</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>40107</v>
+        <v>40403</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3766615582203562</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2871632107436468</v>
+        <v>0.2956326039327661</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4639975157258345</v>
+        <v>0.4674242987983469</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>88</v>
@@ -3280,19 +3280,19 @@
         <v>75214</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>61617</v>
+        <v>63381</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>88614</v>
+        <v>88449</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3403769534824981</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2788461913212679</v>
+        <v>0.2868273019312775</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4010185900971593</v>
+        <v>0.4002722138146584</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>16055</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10294</v>
+        <v>10291</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>23071</v>
+        <v>23750</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1193363099901565</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0765174006088989</v>
+        <v>0.07649104903329718</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1714864114583241</v>
+        <v>0.1765332842710583</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>20</v>
@@ -3330,19 +3330,19 @@
         <v>13206</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8499</v>
+        <v>8650</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18875</v>
+        <v>19981</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1527873889005494</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09832367085888681</v>
+        <v>0.1000693102461993</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2183661941556913</v>
+        <v>0.2311580712088042</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>40</v>
@@ -3351,19 +3351,19 @@
         <v>29262</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>21051</v>
+        <v>21533</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>38468</v>
+        <v>39101</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1324212534586654</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09526492000585766</v>
+        <v>0.09744612692941523</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1740848187988039</v>
+        <v>0.1769514738554707</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>12514</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7043</v>
+        <v>7213</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20383</v>
+        <v>19689</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.09301946667553591</v>
+        <v>0.09301946667553594</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05234959312083995</v>
+        <v>0.05361724190764883</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1515032011654232</v>
+        <v>0.1463445438505499</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>11</v>
@@ -3401,19 +3401,19 @@
         <v>7387</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3964</v>
+        <v>4047</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12536</v>
+        <v>12331</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.08546065586056595</v>
+        <v>0.08546065586056596</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04585750487769524</v>
+        <v>0.04681521216002831</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1450283475867777</v>
+        <v>0.1426612072365596</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>25</v>
@@ -3422,19 +3422,19 @@
         <v>19901</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>13667</v>
+        <v>13287</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>29120</v>
+        <v>28584</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09006271265071117</v>
+        <v>0.09006271265071115</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06184743840007878</v>
+        <v>0.06013100391710589</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1317825719469809</v>
+        <v>0.1293545590685505</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>27442</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19244</v>
+        <v>19400</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>36792</v>
+        <v>37325</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2039776481088091</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1430422094419313</v>
+        <v>0.1441989599104311</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2734762735879599</v>
+        <v>0.2774361107833971</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>17</v>
@@ -3472,19 +3472,19 @@
         <v>10898</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6844</v>
+        <v>6695</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16622</v>
+        <v>16395</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1260809429807009</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07917681581328243</v>
+        <v>0.07745959851911943</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1923065378202395</v>
+        <v>0.1896791436627271</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>49</v>
@@ -3493,19 +3493,19 @@
         <v>38340</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>29348</v>
+        <v>29211</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>49190</v>
+        <v>49004</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1735070619218947</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1328121066840749</v>
+        <v>0.1321932715445439</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2226084840152562</v>
+        <v>0.2217637886534645</v>
       </c>
     </row>
     <row r="43">
@@ -3522,19 +3522,19 @@
         <v>23878</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>16367</v>
+        <v>16851</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>32791</v>
+        <v>33177</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1774848028187928</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1216565362465214</v>
+        <v>0.1252495095869005</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2437323067674403</v>
+        <v>0.2466035779923819</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>17</v>
@@ -3543,19 +3543,19 @@
         <v>11333</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>6699</v>
+        <v>6773</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>17225</v>
+        <v>17711</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1311177360401419</v>
+        <v>0.131117736040142</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07749890404449783</v>
+        <v>0.07835871433850844</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1992834925908863</v>
+        <v>0.2048977806813186</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>45</v>
@@ -3564,19 +3564,19 @@
         <v>35212</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>26620</v>
+        <v>26208</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>46820</v>
+        <v>45460</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.1593475568057585</v>
+        <v>0.1593475568057584</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1204670302859632</v>
+        <v>0.1186015492845046</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2118823143892929</v>
+        <v>0.2057252927335874</v>
       </c>
     </row>
     <row r="44">
@@ -3593,19 +3593,19 @@
         <v>11989</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6964</v>
+        <v>6923</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>19666</v>
+        <v>19290</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08911714556206583</v>
+        <v>0.08911714556206585</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05176065690396892</v>
+        <v>0.0514570792223862</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1461742305534051</v>
+        <v>0.1433792234062916</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>18</v>
@@ -3614,19 +3614,19 @@
         <v>11055</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6892</v>
+        <v>6806</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>16643</v>
+        <v>17254</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1278917179976854</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07972943621061356</v>
+        <v>0.07874513108101674</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1925483505113751</v>
+        <v>0.1996168399042096</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>32</v>
@@ -3635,19 +3635,19 @@
         <v>23044</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>16237</v>
+        <v>16099</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>32341</v>
+        <v>32374</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.1042844616804722</v>
+        <v>0.1042844616804721</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.07347792875316621</v>
+        <v>0.07285701029098214</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1463561895644117</v>
+        <v>0.1465070969603661</v>
       </c>
     </row>
     <row r="45">
@@ -3739,19 +3739,19 @@
         <v>121864</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>102682</v>
+        <v>102497</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>142447</v>
+        <v>144347</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3186528579825675</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2684949173844422</v>
+        <v>0.2680118442379527</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3724748833007372</v>
+        <v>0.3774430100562118</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>114</v>
@@ -3760,19 +3760,19 @@
         <v>97230</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>82275</v>
+        <v>81301</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>112864</v>
+        <v>114850</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.2727412802532258</v>
+        <v>0.2727412802532259</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2307900622019537</v>
+        <v>0.2280588193131876</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.316596795785923</v>
+        <v>0.3221668655607166</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>214</v>
@@ -3781,19 +3781,19 @@
         <v>219094</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>194278</v>
+        <v>196008</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>245567</v>
+        <v>246103</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.2965030560645</v>
+        <v>0.2965030560645001</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2629201104571058</v>
+        <v>0.2652606834610327</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3323298275479281</v>
+        <v>0.3330560452229259</v>
       </c>
     </row>
     <row r="47">
@@ -3810,19 +3810,19 @@
         <v>106430</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>86455</v>
+        <v>86521</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>127566</v>
+        <v>126471</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2782957073586382</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.226064175467853</v>
+        <v>0.226236766577767</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3335630351422157</v>
+        <v>0.3307004846861097</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>86</v>
@@ -3831,19 +3831,19 @@
         <v>68523</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>55836</v>
+        <v>56313</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>83794</v>
+        <v>83433</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1922149542985384</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1566272931457884</v>
+        <v>0.1579642946015411</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2350523377722643</v>
+        <v>0.2340407916974033</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>170</v>
@@ -3852,19 +3852,19 @@
         <v>174953</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>149326</v>
+        <v>151185</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>199346</v>
+        <v>200846</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2367664956970501</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2020849738034158</v>
+        <v>0.2046014143124381</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2697778512806245</v>
+        <v>0.2718087627586957</v>
       </c>
     </row>
     <row r="48">
@@ -3881,19 +3881,19 @@
         <v>28739</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>18613</v>
+        <v>18944</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>42438</v>
+        <v>43150</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.07514754378874726</v>
+        <v>0.07514754378874725</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04867057053611325</v>
+        <v>0.04953468541367487</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1109679415616887</v>
+        <v>0.1128301405269329</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -3902,19 +3902,19 @@
         <v>28461</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>19571</v>
+        <v>19990</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>38724</v>
+        <v>38472</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.07983688828271621</v>
+        <v>0.07983688828271623</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.05489867032505822</v>
+        <v>0.05607389123119769</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1086245672707047</v>
+        <v>0.1079191674581396</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>58</v>
@@ -3923,19 +3923,19 @@
         <v>57200</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>42872</v>
+        <v>42760</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>74031</v>
+        <v>74065</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.07740989365350941</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.05801990726775879</v>
+        <v>0.05786804404263594</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1001877275178861</v>
+        <v>0.1002337233234924</v>
       </c>
     </row>
     <row r="49">
@@ -3952,19 +3952,19 @@
         <v>59911</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>46116</v>
+        <v>45563</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>78520</v>
+        <v>77254</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1566573744828981</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1205855102497701</v>
+        <v>0.119139621851595</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2053158731942591</v>
+        <v>0.2020053184889052</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>68</v>
@@ -3973,19 +3973,19 @@
         <v>56548</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>43589</v>
+        <v>45496</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>69937</v>
+        <v>71830</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1586228363075836</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1222720269565756</v>
+        <v>0.1276221028601128</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1961802839308278</v>
+        <v>0.2014922251218007</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>116</v>
@@ -3994,19 +3994,19 @@
         <v>116459</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>96255</v>
+        <v>96974</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>137303</v>
+        <v>136412</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1576056013190777</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.130262903449135</v>
+        <v>0.1312369274395789</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1858139617233551</v>
+        <v>0.1846089231397546</v>
       </c>
     </row>
     <row r="50">
@@ -4023,19 +4023,19 @@
         <v>43486</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>31205</v>
+        <v>31597</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>58750</v>
+        <v>57955</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1137087157855032</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.08159627053565717</v>
+        <v>0.0826218406901235</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1536215082038524</v>
+        <v>0.1515433078740956</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>93</v>
@@ -4044,19 +4044,19 @@
         <v>73363</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>59837</v>
+        <v>60407</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>86942</v>
+        <v>87812</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.205791859557576</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1678496050788385</v>
+        <v>0.1694487227108807</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2438837655504805</v>
+        <v>0.24632419226125</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>129</v>
@@ -4065,19 +4065,19 @@
         <v>116849</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>98322</v>
+        <v>96806</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>138258</v>
+        <v>139706</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.1581337496313958</v>
+        <v>0.1581337496313959</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1330613466371222</v>
+        <v>0.1310096239823452</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1871062825151825</v>
+        <v>0.1890668185465969</v>
       </c>
     </row>
     <row r="51">
@@ -4094,19 +4094,19 @@
         <v>22004</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>13251</v>
+        <v>13148</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>35144</v>
+        <v>34640</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.05753780060164576</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0346494310134192</v>
+        <v>0.03437863026877998</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.09189635369481033</v>
+        <v>0.09057656271941314</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>44</v>
@@ -4115,19 +4115,19 @@
         <v>32367</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>23536</v>
+        <v>23638</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>42297</v>
+        <v>42739</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.09079218130035989</v>
+        <v>0.0907921813003599</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.0660200988369076</v>
+        <v>0.06630705160500484</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.118647340380376</v>
+        <v>0.1198894102416113</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>62</v>
@@ -4136,19 +4136,19 @@
         <v>54371</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>40802</v>
+        <v>42633</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>67781</v>
+        <v>69579</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.07358120363446687</v>
+        <v>0.07358120363446689</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.05521872637077572</v>
+        <v>0.05769554844568197</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.0917288285782068</v>
+        <v>0.09416210113162141</v>
       </c>
     </row>
     <row r="52">
@@ -4240,19 +4240,19 @@
         <v>81612</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>64063</v>
+        <v>61681</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>100560</v>
+        <v>100320</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1808011366884507</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1419229501879345</v>
+        <v>0.136647286084578</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2227779421755951</v>
+        <v>0.2222463742498283</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>40</v>
@@ -4261,19 +4261,19 @@
         <v>33599</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>24654</v>
+        <v>23916</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>44387</v>
+        <v>43322</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1077179967883187</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07903945950684527</v>
+        <v>0.07667360632936625</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1423033967889241</v>
+        <v>0.1388910418825733</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>107</v>
@@ -4282,19 +4282,19 @@
         <v>115211</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>96013</v>
+        <v>94048</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>138227</v>
+        <v>137321</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.150936537979706</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1257857953301114</v>
+        <v>0.1232114745964536</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1810898079519462</v>
+        <v>0.1799019153102618</v>
       </c>
     </row>
     <row r="54">
@@ -4311,19 +4311,19 @@
         <v>71842</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>56034</v>
+        <v>55587</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>91470</v>
+        <v>89402</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1591560163954741</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1241366177059456</v>
+        <v>0.1231457334067368</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2026400585459136</v>
+        <v>0.1980578019109283</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>66</v>
@@ -4332,19 +4332,19 @@
         <v>55466</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>43673</v>
+        <v>44196</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>67832</v>
+        <v>69562</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1778238723493253</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1400161999935058</v>
+        <v>0.1416925712189049</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2174666785984963</v>
+        <v>0.2230137727198677</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>125</v>
@@ -4353,19 +4353,19 @@
         <v>127308</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>107091</v>
+        <v>107154</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>148097</v>
+        <v>148547</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1667844246381447</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1402986808091891</v>
+        <v>0.1403816647430521</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1940206052149034</v>
+        <v>0.1946089752764266</v>
       </c>
     </row>
     <row r="55">
@@ -4382,19 +4382,19 @@
         <v>87925</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>70475</v>
+        <v>72757</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>108494</v>
+        <v>107689</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1947874136550969</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1561291335888166</v>
+        <v>0.1611830294791758</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2403554543779205</v>
+        <v>0.2385716395470207</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>71</v>
@@ -4403,19 +4403,19 @@
         <v>60979</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>47774</v>
+        <v>48884</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>74502</v>
+        <v>74006</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1954963360532057</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1531628616163473</v>
+        <v>0.1567209109028981</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2388520488003368</v>
+        <v>0.2372624169210465</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>148</v>
@@ -4424,19 +4424,19 @@
         <v>148904</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>128716</v>
+        <v>127299</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>171833</v>
+        <v>170168</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1950771067767128</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1686289480198397</v>
+        <v>0.1667729913690514</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2251167782389905</v>
+        <v>0.2229354524117179</v>
       </c>
     </row>
     <row r="56">
@@ -4453,19 +4453,19 @@
         <v>117353</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>98725</v>
+        <v>95849</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>139488</v>
+        <v>138389</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2599800086357384</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.218712689068185</v>
+        <v>0.2123419117229852</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3090183297456618</v>
+        <v>0.3065826900611286</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>90</v>
@@ -4474,19 +4474,19 @@
         <v>72284</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>58930</v>
+        <v>59943</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>87330</v>
+        <v>87537</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2317404645079559</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1889269734520334</v>
+        <v>0.1921756476770817</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2799782619930781</v>
+        <v>0.2806409238487254</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>190</v>
@@ -4495,19 +4495,19 @@
         <v>189636</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>163854</v>
+        <v>167542</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>213581</v>
+        <v>217557</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2484402382557771</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2146632819651394</v>
+        <v>0.2194943654088874</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2798093669614128</v>
+        <v>0.2850188774570427</v>
       </c>
     </row>
     <row r="57">
@@ -4524,19 +4524,19 @@
         <v>68349</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>51137</v>
+        <v>53720</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>84039</v>
+        <v>87948</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.1514193363361476</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1132871569869758</v>
+        <v>0.1190106808089068</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1861769420963659</v>
+        <v>0.1948387141184846</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>80</v>
@@ -4545,19 +4545,19 @@
         <v>66406</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>54887</v>
+        <v>53995</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>81257</v>
+        <v>80074</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.2128955872936481</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.1759681759945422</v>
+        <v>0.1731061220395805</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.2605078971856946</v>
+        <v>0.2567150363978563</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>137</v>
@@ -4566,19 +4566,19 @@
         <v>134755</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>114152</v>
+        <v>115964</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>156646</v>
+        <v>156113</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.1765409111271689</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.1495491425618398</v>
+        <v>0.1519234642505359</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.2052196861420277</v>
+        <v>0.2045214972752409</v>
       </c>
     </row>
     <row r="58">
@@ -4595,19 +4595,19 @@
         <v>24310</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>15653</v>
+        <v>14613</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>36326</v>
+        <v>36801</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.0538560882890923</v>
+        <v>0.05385608828909229</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.03467725933231851</v>
+        <v>0.03237247482151661</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.080474909356747</v>
+        <v>0.08152765813041454</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>27</v>
@@ -4616,19 +4616,19 @@
         <v>23183</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>15398</v>
+        <v>15695</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>32214</v>
+        <v>31993</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.07432574300754631</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.0493669886620518</v>
+        <v>0.05031711585318974</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.1032790126975294</v>
+        <v>0.1025703827975145</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>47</v>
@@ -4637,19 +4637,19 @@
         <v>47494</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>35446</v>
+        <v>35180</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>62895</v>
+        <v>62313</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.06222078122249058</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.04643745979361827</v>
+        <v>0.04608861553310688</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.08239727693543207</v>
+        <v>0.08163564005339397</v>
       </c>
     </row>
     <row r="59">
@@ -4741,19 +4741,19 @@
         <v>606450</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>561645</v>
+        <v>560380</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>653379</v>
+        <v>651553</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.3175130312041977</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.2940550105996338</v>
+        <v>0.2933927593868713</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.3420831110174232</v>
+        <v>0.341127000943671</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>531</v>
@@ -4762,19 +4762,19 @@
         <v>406937</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>376877</v>
+        <v>376499</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>437763</v>
+        <v>440114</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.272283029168378</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.2521696954182829</v>
+        <v>0.2519170639736432</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.2929089428843498</v>
+        <v>0.2944822706975972</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>1045</v>
@@ -4783,19 +4783,19 @@
         <v>1013387</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>958538</v>
+        <v>957540</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>1068839</v>
+        <v>1070936</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.2976577985134914</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.281547199346532</v>
+        <v>0.2812542085856528</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.3139455832480293</v>
+        <v>0.3145615641957355</v>
       </c>
     </row>
     <row r="61">
@@ -4812,19 +4812,19 @@
         <v>361726</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>322991</v>
+        <v>325721</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>400504</v>
+        <v>398347</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.1893852772970958</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.1691053561063905</v>
+        <v>0.1705346759454092</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.2096879850839239</v>
+        <v>0.2085587413874085</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>414</v>
@@ -4833,19 +4833,19 @@
         <v>278638</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>252863</v>
+        <v>255329</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>304687</v>
+        <v>307659</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0.1864380775563579</v>
+        <v>0.186438077556358</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.169191384552918</v>
+        <v>0.1708415483093092</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.2038675484792663</v>
+        <v>0.2058557184602079</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>744</v>
@@ -4854,19 +4854,19 @@
         <v>640364</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>595718</v>
+        <v>590296</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>688652</v>
+        <v>687968</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.1880915047124296</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.1749777551845835</v>
+        <v>0.1733850459447969</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.2022748731286398</v>
+        <v>0.2020739459741042</v>
       </c>
     </row>
     <row r="62">
@@ -4883,19 +4883,19 @@
         <v>222443</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>193075</v>
+        <v>191212</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>256967</v>
+        <v>253444</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.1164620520037814</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.1010864594702834</v>
+        <v>0.10011092524408</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.1345374758095735</v>
+        <v>0.13269322781865</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>241</v>
@@ -4904,19 +4904,19 @@
         <v>174862</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>151437</v>
+        <v>153191</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>199088</v>
+        <v>195139</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.1170007180167255</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.1013272677873826</v>
+        <v>0.1025004326893412</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.1332107028057213</v>
+        <v>0.130568596437246</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>449</v>
@@ -4925,19 +4925,19 @@
         <v>397304</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>358993</v>
+        <v>360336</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>434915</v>
+        <v>434794</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1166985175918464</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.1054453721123104</v>
+        <v>0.1058399975924837</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1277458505605621</v>
+        <v>0.1277101039208378</v>
       </c>
     </row>
     <row r="63">
@@ -4954,19 +4954,19 @@
         <v>335112</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>299692</v>
+        <v>299671</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>374700</v>
+        <v>374804</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.1754511839738317</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.1569068814647041</v>
+        <v>0.1568958129592926</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.1961778785561098</v>
+        <v>0.1962324832212546</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>317</v>
@@ -4975,19 +4975,19 @@
         <v>241817</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>219342</v>
+        <v>216685</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>269275</v>
+        <v>266051</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.1618008831320623</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.1467627097215418</v>
+        <v>0.1449844979226646</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.1801729251441855</v>
+        <v>0.1780158662120569</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>601</v>
@@ -4996,19 +4996,19 @@
         <v>576929</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>531075</v>
+        <v>534283</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>623529</v>
+        <v>625925</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.1694589246921091</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.1559905102448006</v>
+        <v>0.1569327762654091</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.1831466291835624</v>
+        <v>0.1838502999895055</v>
       </c>
     </row>
     <row r="64">
@@ -5025,19 +5025,19 @@
         <v>264940</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>229129</v>
+        <v>229372</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>301605</v>
+        <v>299716</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.1387119278898258</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1199626380961683</v>
+        <v>0.1200898781242957</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.1579083609496813</v>
+        <v>0.1569192377981117</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>310</v>
@@ -5046,19 +5046,19 @@
         <v>250767</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>223376</v>
+        <v>226172</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>276796</v>
+        <v>276227</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.1677890413015104</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.149461944357455</v>
+        <v>0.1513326382602039</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.1852052223680378</v>
+        <v>0.1848247958174711</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>522</v>
@@ -5067,19 +5067,19 @@
         <v>515707</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>470221</v>
+        <v>474038</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>562949</v>
+        <v>566790</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.151476306107316</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.1381159484470898</v>
+        <v>0.1392372083270056</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.1653526904040362</v>
+        <v>0.1664808896556</v>
       </c>
     </row>
     <row r="65">
@@ -5096,19 +5096,19 @@
         <v>119330</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>97293</v>
+        <v>96986</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>146720</v>
+        <v>144631</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.06247652763126765</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.05093885019654102</v>
+        <v>0.05077820536445696</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.07681647078093132</v>
+        <v>0.07572323089175528</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>186</v>
@@ -5117,19 +5117,19 @@
         <v>141515</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>122674</v>
+        <v>120192</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>163506</v>
+        <v>161651</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.09468825082496568</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.08208161097477323</v>
+        <v>0.08042112924343876</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.1094022383184644</v>
+        <v>0.1081613138223012</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>285</v>
@@ -5138,19 +5138,19 @@
         <v>260845</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>231410</v>
+        <v>230237</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>294803</v>
+        <v>290596</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.07661694838280757</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.06797099167367295</v>
+        <v>0.06762661123920403</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.08659127513784222</v>
+        <v>0.08535554540614086</v>
       </c>
     </row>
     <row r="66">
